--- a/Documents/Supplies.xlsx
+++ b/Documents/Supplies.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elsmen\OneDrive\Documents\IOT12\CAPSTONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elsmen\OneDrive\Documents\IOT12\CAPSTONE1\air-quality-elsmen\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4344F63-C0A1-44EA-A579-754975025ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C198341-E61B-47BF-AC9F-29714A53893D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{3ACCAE07-EBC6-4F14-B8AF-7629C12FA504}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3ACCAE07-EBC6-4F14-B8AF-7629C12FA504}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cost" sheetId="1" r:id="rId1"/>
+    <sheet name="Alb Tests" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Sensors</t>
   </si>
@@ -146,9 +147,6 @@
     <t>Batt</t>
   </si>
   <si>
-    <t>1800 mAh</t>
-  </si>
-  <si>
     <t>lat,long,alt</t>
   </si>
   <si>
@@ -168,13 +166,49 @@
   </si>
   <si>
     <t>Nitrogen dioxide (NO2)</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>BME280</t>
+  </si>
+  <si>
+    <t>HM3301</t>
+  </si>
+  <si>
+    <t>500 mAh</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Mini GPS</t>
+  </si>
+  <si>
+    <t>City of Albuquerque currently tests for the following:</t>
+  </si>
+  <si>
+    <t>Subtotal:</t>
+  </si>
+  <si>
+    <t>CAPSTONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,16 +216,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -316,11 +371,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -375,8 +469,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -709,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A528FE-E5DA-4745-99F3-7FD664747EB0}">
-  <dimension ref="B1:L13"/>
+  <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,270 +850,419 @@
     <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="41">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="16"/>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>60</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="21"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="18"/>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="25">
+        <v>17.95</v>
+      </c>
+      <c r="L5" s="24">
+        <f>D5*K5</f>
+        <v>35.9</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K6" s="25">
+        <v>1.71</v>
+      </c>
+      <c r="L6" s="25">
+        <f>D6*K6</f>
+        <v>1.71</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="25">
+        <v>32.9</v>
+      </c>
+      <c r="L7" s="25">
+        <f>D7*K7</f>
+        <v>32.9</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="31">
+        <v>1</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-      <c r="C8" s="1" t="s">
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+      <c r="C9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="31">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8">
+      <c r="F9" s="31"/>
+      <c r="G9" s="32">
         <v>20</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>60</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6">
         <v>2</v>
       </c>
       <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="25">
+        <v>17.8</v>
+      </c>
+      <c r="L10" s="25">
+        <f>D10*K10</f>
+        <v>35.6</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="25">
+        <v>7.95</v>
+      </c>
+      <c r="L11" s="25">
+        <f>D11*K11</f>
+        <v>15.9</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="19"/>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="19"/>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="F12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="26">
+        <v>29.95</v>
+      </c>
+      <c r="L12" s="26">
+        <f>D12*K12</f>
+        <v>29.95</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="37">
+        <f>SUM(L5:L12)</f>
+        <v>151.95999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+  <mergeCells count="13">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M6" r:id="rId1" xr:uid="{C10519A9-8ED9-483C-8D57-096C9BBCEEAA}"/>
+    <hyperlink ref="M5" r:id="rId2" xr:uid="{D3B23B72-DC3F-4A1D-8BE8-8873702C99EB}"/>
+    <hyperlink ref="M7" r:id="rId3" xr:uid="{A342A349-23DD-48EE-8E63-C4AD96247A84}"/>
+    <hyperlink ref="M10" r:id="rId4" xr:uid="{14127588-6FC7-4905-81E6-CA6E700CA218}"/>
+    <hyperlink ref="M11" r:id="rId5" xr:uid="{C157282E-AC1D-44D4-A5DB-FE55D9B3D3C7}"/>
+    <hyperlink ref="M12" r:id="rId6" xr:uid="{2E7E4A7C-3313-4C69-A862-E045B8BAF419}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC6A6B5-32E9-4656-84B8-9F77EED6DAE4}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/Supplies.xlsx
+++ b/Documents/Supplies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elsmen\OneDrive\Documents\IOT12\CAPSTONE1\air-quality-elsmen\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C198341-E61B-47BF-AC9F-29714A53893D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D89B56-2CBB-4CD9-928B-9AC8EB1E3656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3ACCAE07-EBC6-4F14-B8AF-7629C12FA504}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>Sensors</t>
   </si>
@@ -60,9 +60,6 @@
     <t>GPS</t>
   </si>
   <si>
-    <t>Sensing</t>
-  </si>
-  <si>
     <t>Temp/Humidity/Pressure</t>
   </si>
   <si>
@@ -199,6 +196,36 @@
   </si>
   <si>
     <t>CAPSTONE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>BDBRD</t>
+  </si>
+  <si>
+    <t>Breadboard</t>
+  </si>
+  <si>
+    <t>1/2" Solder Breadboar (3Qty)</t>
+  </si>
+  <si>
+    <t>Borrowed</t>
+  </si>
+  <si>
+    <t>Header Pins</t>
+  </si>
+  <si>
+    <t>Header Pins to solder</t>
+  </si>
+  <si>
+    <t>S&amp;H</t>
+  </si>
+  <si>
+    <t>1/2 Ounce 60/40 Tube Solder, 3" Long</t>
+  </si>
+  <si>
+    <t>Solder</t>
   </si>
 </sst>
 </file>
@@ -414,81 +441,37 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,7 +481,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -835,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A528FE-E5DA-4745-99F3-7FD664747EB0}">
-  <dimension ref="B1:M14"/>
+  <dimension ref="B1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,350 +886,451 @@
     <col min="6" max="6" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M1" s="41">
+      <c r="M1" s="17">
         <v>45390</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="F3" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="27" t="s">
+      <c r="J3" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="27" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="28"/>
+      <c r="C5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="35">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="36">
         <v>60</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="25">
+      <c r="H5" s="36"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="8">
         <v>17.95</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="8">
         <f>D5*K5</f>
         <v>35.9</v>
       </c>
-      <c r="M5" s="29" t="s">
-        <v>18</v>
+      <c r="M5" s="38" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="39">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="25">
+      <c r="I6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="9">
         <v>1.71</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="9">
         <f>D6*K6</f>
         <v>1.71</v>
       </c>
-      <c r="M6" s="29" t="s">
-        <v>46</v>
+      <c r="M6" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="39">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
+      <c r="E7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="40">
         <v>30</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="25">
+      <c r="H7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="9">
         <v>32.9</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="9">
         <f>D7*K7</f>
         <v>32.9</v>
       </c>
-      <c r="M7" s="29" t="s">
-        <v>47</v>
+      <c r="M7" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="41">
         <v>1</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="H8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="41">
         <v>1</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32">
+      <c r="E9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42">
         <v>20</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="H9" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="39">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10">
+      <c r="E10" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="40">
         <v>60</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="25">
+      <c r="H10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="9">
         <v>17.8</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="9">
         <f>D10*K10</f>
         <v>35.6</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="6">
+        <v>34</v>
+      </c>
+      <c r="D11" s="39">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="25">
+      <c r="E11" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="9">
         <v>7.95</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="9">
         <f>D11*K11</f>
         <v>15.9</v>
       </c>
-      <c r="M11" s="29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="19"/>
-      <c r="C12" s="3" t="s">
+      <c r="M11" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="28"/>
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="39">
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="26">
+      <c r="E12" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="9">
         <v>29.95</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="9">
         <f>D12*K12</f>
         <v>29.95</v>
       </c>
-      <c r="M12" s="36" t="s">
-        <v>50</v>
+      <c r="M12" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="37">
-        <f>SUM(L5:L12)</f>
-        <v>151.95999999999998</v>
+      <c r="B13" s="28"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="9">
+        <v>12.98</v>
+      </c>
+      <c r="L13" s="9">
+        <f>K13</f>
+        <v>12.98</v>
+      </c>
+      <c r="M13" s="49" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="28"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="39">
         <v>1</v>
       </c>
+      <c r="E14" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="9">
+        <v>3.25</v>
+      </c>
+      <c r="L14" s="9">
+        <f>K14*D14</f>
+        <v>3.25</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29"/>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="L15" s="10">
+        <f>K15/D15</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="M15" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="46"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="16">
+        <f>SUM(L5:L15)</f>
+        <v>172.35666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1202,7 +1341,7 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B3:B15"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
@@ -1216,9 +1355,12 @@
     <hyperlink ref="M10" r:id="rId4" xr:uid="{14127588-6FC7-4905-81E6-CA6E700CA218}"/>
     <hyperlink ref="M11" r:id="rId5" xr:uid="{C157282E-AC1D-44D4-A5DB-FE55D9B3D3C7}"/>
     <hyperlink ref="M12" r:id="rId6" xr:uid="{2E7E4A7C-3313-4C69-A862-E045B8BAF419}"/>
+    <hyperlink ref="M15" r:id="rId7" xr:uid="{31053CF1-67AD-41F5-B356-A7B4CEBD3775}"/>
+    <hyperlink ref="M13" r:id="rId8" xr:uid="{8E9D7A2B-121D-4C1F-A1B7-D87FFBE9FF24}"/>
+    <hyperlink ref="M14" r:id="rId9" xr:uid="{9B68DB1C-D525-4498-A8DC-CD058BB9CD2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1234,32 +1376,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
